--- a/files/assesments/firstround/assesments-robert.xlsx
+++ b/files/assesments/firstround/assesments-robert.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobvejlinjensen/Honeyjar/files/assesments/firstround/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Self assesment</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Ahmet</t>
   </si>
   <si>
-    <t>Creating Plan of Action, research</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -112,12 +109,18 @@
   </si>
   <si>
     <t xml:space="preserve">Active collaborator, motivated </t>
+  </si>
+  <si>
+    <t>Support to others in github, Makeing sure that the git folder is almost clean so it is esay to find stuff</t>
+  </si>
+  <si>
+    <t>Active in meetings, responding fast in discord</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -565,19 +568,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="64.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="64.625" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -588,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -596,17 +599,17 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -615,59 +618,59 @@
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -678,103 +681,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -815,12 +822,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,7 +838,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -842,7 +849,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,7 +860,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,7 +871,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,7 +882,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -884,7 +891,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -893,7 +900,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -902,7 +909,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -911,7 +918,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -920,7 +927,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -929,7 +936,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -938,7 +945,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -947,7 +954,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -956,7 +963,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -965,7 +972,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -974,7 +981,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -983,7 +990,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -992,7 +999,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1001,7 +1008,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1010,7 +1017,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1019,7 +1026,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1028,7 +1035,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-robert.xlsx
+++ b/files/assesments/firstround/assesments-robert.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Self assesment</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Active in meetings, responding fast in discord</t>
+  </si>
+  <si>
+    <t>Guiding everyone on how to use the programs (github/sourcetree etc..) very helpful and good overview.</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,8 +634,12 @@
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -827,7 +834,7 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,7 +845,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -849,7 +856,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -860,7 +867,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,7 +878,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,7 +889,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -891,7 +898,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -900,7 +907,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -909,7 +916,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -918,7 +925,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -927,7 +934,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -936,7 +943,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -945,7 +952,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -954,7 +961,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -963,7 +970,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -972,7 +979,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/files/assesments/firstround/assesments-robert.xlsx
+++ b/files/assesments/firstround/assesments-robert.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piiit\Documents\Honeyjar\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6CB3C-4BC9-44C1-9CD0-0D42F53F97D0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7545" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="20508" windowHeight="7548" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Self assesment</t>
   </si>
@@ -118,12 +119,15 @@
   </si>
   <si>
     <t>Guiding everyone on how to use the programs (github/sourcetree etc..) very helpful and good overview.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good at teaching everyone how to use platforms correctly. Active on platforms and good explanations. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -297,10 +301,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Grade" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,22 +572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="64.625" customWidth="1"/>
+    <col min="1" max="1" width="40.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="64.59765625" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -594,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,21 +609,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -630,7 +634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -641,43 +645,43 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -688,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -699,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -710,85 +714,89 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -802,14 +810,14 @@
     <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -822,19 +830,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -845,7 +853,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -856,7 +864,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -867,7 +875,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,7 +886,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -889,7 +897,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -898,7 +906,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -907,7 +915,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -916,7 +924,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -925,7 +933,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -934,7 +942,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -943,7 +951,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -952,7 +960,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -961,7 +969,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -970,7 +978,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -979,7 +987,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -988,7 +996,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -997,7 +1005,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1006,7 +1014,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1015,7 +1023,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1024,7 +1032,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1033,7 +1041,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1042,7 +1050,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-robert.xlsx
+++ b/files/assesments/firstround/assesments-robert.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piiit\Documents\Honeyjar\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6CB3C-4BC9-44C1-9CD0-0D42F53F97D0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="20508" windowHeight="7548" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Self assesment</t>
   </si>
@@ -122,12 +121,18 @@
   </si>
   <si>
     <t xml:space="preserve">Good at teaching everyone how to use platforms correctly. Active on platforms and good explanations. </t>
+  </si>
+  <si>
+    <t>Active collaborator, motivated</t>
+  </si>
+  <si>
+    <t>Admin on discord and very active to support as well as very active in communications.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -301,10 +306,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grade" dataDxfId="0"/>
+    <tableColumn id="1" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,22 +577,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.09765625" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="64.59765625" customWidth="1"/>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="64.625" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -598,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -609,21 +614,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -634,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -645,43 +650,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -692,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -703,7 +712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -714,21 +723,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -739,64 +748,68 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -810,14 +823,14 @@
     <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -830,19 +843,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,7 +866,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -864,7 +877,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +888,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,7 +899,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,7 +910,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -906,7 +919,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -915,7 +928,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -924,7 +937,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -933,7 +946,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -942,7 +955,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -951,7 +964,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -960,7 +973,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -969,7 +982,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -978,7 +991,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -987,7 +1000,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -996,7 +1009,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1005,7 +1018,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1014,7 +1027,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1023,7 +1036,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1032,7 +1045,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1041,7 +1054,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1050,7 +1063,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-robert.xlsx
+++ b/files/assesments/firstround/assesments-robert.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="150000" iterateDelta="1E-4"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Self assesment</t>
   </si>
@@ -127,6 +127,17 @@
   </si>
   <si>
     <t>Admin on discord and very active to support as well as very active in communications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Robert has been the main driven part of setting up, configuring and 
+keeping track of the GitHub platform and administrating Discord server. 
+2) He has been very active on Discord, and been a clear communicator about
+updates on GitHub and his contributions to a variety of project
+relevant work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Active collaboration on Discord and Git
+2) Good job on administrating both services </t>
   </si>
 </sst>
 </file>
@@ -580,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,8 +629,12 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -770,8 +785,12 @@
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">

--- a/files/assesments/firstround/assesments-robert.xlsx
+++ b/files/assesments/firstround/assesments-robert.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morcel\Documents\GitHub\Honeyjar\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,6 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Self assesment</t>
   </si>
@@ -139,11 +136,17 @@
     <t xml:space="preserve">1) Active collaboration on Discord and Git
 2) Good job on administrating both services </t>
   </si>
+  <si>
+    <t>Gives guidance with applications like git or discord. Makes sure discord is in order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attends meetings actively and productively. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,8 +697,12 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -742,8 +749,12 @@
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">

--- a/files/assesments/firstround/assesments-robert.xlsx
+++ b/files/assesments/firstround/assesments-robert.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morcel\Documents\GitHub\Honeyjar\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Self assesment</t>
   </si>
@@ -142,11 +142,17 @@
   <si>
     <t xml:space="preserve">Attends meetings actively and productively. </t>
   </si>
+  <si>
+    <t>Particioated in meetings, very Git active</t>
+  </si>
+  <si>
+    <t>Git problem solver and responseble, good at anwsering questions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -595,7 +601,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B29" sqref="B28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,8 +689,12 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -789,8 +799,12 @@
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
